--- a/web/w4240/src/Gradebook/gradebook_ms.xlsx
+++ b/web/w4240/src/Gradebook/gradebook_ms.xlsx
@@ -382,12 +382,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -751,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -815,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>-10000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2022,11 +2016,11 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>-18.75</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L48">
         <f t="shared" ref="L48:L86" si="3">SUM(C48:I48)*100</f>
-        <v>-1815.325</v>
+        <v>74.675000000000011</v>
       </c>
       <c r="M48" t="s">
         <v>102</v>
@@ -2889,7 +2883,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:B87" si="5">A22</f>
+        <f t="shared" ref="A68:B86" si="5">A22</f>
         <v xml:space="preserve">Realov, Simeon D </v>
       </c>
       <c r="B68" t="str">
@@ -3347,7 +3341,7 @@
         <v xml:space="preserve">ht2296 </v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:I87" si="7">C32/C$45*C$46</f>
+        <f t="shared" ref="C78:I86" si="7">C32/C$45*C$46</f>
         <v>0.13500000000000004</v>
       </c>
       <c r="D78">
@@ -3743,7 +3737,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A48:XFD86">
     <sortCondition descending="1" ref="L48:L86"/>
   </sortState>
